--- a/medicine/Mort/Mausolée_ducal_d'Oldenbourg/Mausolée_ducal_d'Oldenbourg.xlsx
+++ b/medicine/Mort/Mausolée_ducal_d'Oldenbourg/Mausolée_ducal_d'Oldenbourg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mausol%C3%A9e_ducal_d%27Oldenbourg</t>
+          <t>Mausolée_ducal_d'Oldenbourg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mausolée ducal (Herzogliche Mausoleum) est un lieu de sépulture réservé depuis 1786 aux chefs de la branche allemande de la maison d'Oldenbourg situé à Oldenbourg en Allemagne, au cimetière Sainte-Gertrude de cette ville de Basse-Saxe.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mausol%C3%A9e_ducal_d%27Oldenbourg</t>
+          <t>Mausolée_ducal_d'Oldenbourg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lorsque la duchesse Frédérique, épouse du régent Pierre de Holstein-Gottorp (futur Pierre Ier), meurt en novembre 1785, en donnant naissance à son troisième enfant, la sépulture des ducs d'Oldenbourg, qui se trouve à l'église Saint-Lambert d'Oldenbourg, n'a plus de place; ainsi le veuf fait construire ce mausolée [1]. Il fait appel à Johann Heinrich Gottlieb Becker (1747-1818), auteur du château de Rastede, résidence d'été des ducs. L'emplacement choisi se trouve dans la partie Nord-Est du cimetière Sainte-Gertrude, nouveau cimetière installé près de la tour de la ville. Les travaux commencent en mars 1786[1]. Le duc participe également au plan de l'architecte[1].
-Lorsque la partie Ouest du mausolée est terminée, la dépouille de la duchesse Frédérique est transférée ici de la chapelle du château d'Eutin en 1790. Son époux Pierre Ier l'y rejoint en 1829. Par la suite, le mausolée accueille les souverains d'Oldenbourg et leurs descendants. Le mausolée est restauré en 2012-2013[2],[3],[4],[5]. Le public a eu l'occasion d'accéder au mausolée après restauration en novembre 2013; celui-ci n'est habituellement jamais accessible au public[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorsque la duchesse Frédérique, épouse du régent Pierre de Holstein-Gottorp (futur Pierre Ier), meurt en novembre 1785, en donnant naissance à son troisième enfant, la sépulture des ducs d'Oldenbourg, qui se trouve à l'église Saint-Lambert d'Oldenbourg, n'a plus de place; ainsi le veuf fait construire ce mausolée . Il fait appel à Johann Heinrich Gottlieb Becker (1747-1818), auteur du château de Rastede, résidence d'été des ducs. L'emplacement choisi se trouve dans la partie Nord-Est du cimetière Sainte-Gertrude, nouveau cimetière installé près de la tour de la ville. Les travaux commencent en mars 1786. Le duc participe également au plan de l'architecte.
+Lorsque la partie Ouest du mausolée est terminée, la dépouille de la duchesse Frédérique est transférée ici de la chapelle du château d'Eutin en 1790. Son époux Pierre Ier l'y rejoint en 1829. Par la suite, le mausolée accueille les souverains d'Oldenbourg et leurs descendants. Le mausolée est restauré en 2012-2013. Le public a eu l'occasion d'accéder au mausolée après restauration en novembre 2013; celui-ci n'est habituellement jamais accessible au public.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mausol%C3%A9e_ducal_d%27Oldenbourg</t>
+          <t>Mausolée_ducal_d'Oldenbourg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le duc a également participé à la construction du mausolée et est intervenu à plusieurs reprises de manière décisive dans les plans de l'architecte. Alors que les créations de Becker étaient encore basées sur le langage du baroque tardif et par exemple prévoyait un bâtiment avec une lanterne et un blason baroque dans le pignon, le duc préférait un classicisme sans fioritures dont le langage clair et sublime de la forme correspondait à son image de souverain éclairé. Ce mausolée est le premier édifice de ce style construit à Oldenbourg, et sert de modèle à d'autres édifices de la ville[1].
-La salle presque carrée du mausolée, qui repose sur un soubassement, est couverte d'un toit plat à pignon. À l'extérieur, il est orné d'une frise de triglyphes. L'intérieur est enjambé par une voûte décorée de champs à caissons fortement profilés et de stuc dans les écoinçons. L'incidence de la lumière d'en haut est rendue possible par un dôme pesant environ une tonne, qui est équipé d'un verre gravé très fin. Trois niches sont encastrées dans le mur Nord de l'intérieur, l'ensemble en grès du milieu est dédié à la mémoire de la duchesse Frédérique. En 1824  et en 1831, deux sculptures de marbre de Johann Heinrich Dannecker sont installées à l'intérieur. L'inscription gravée sur le monument en marbre du couple ducal dit à propos du bâtisseur, le duc Pierre Ier : « Être le père de la patrie était sa plus haute vocation. » Le passage vers la crypte au sous-sol était initialement situé directement sous le dôme de verre, mais il a été déplacé à son emplacement actuel en 1895[1].
-Le mausolée est inscrit à la liste des monuments historiques d'importance nationale[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le duc a également participé à la construction du mausolée et est intervenu à plusieurs reprises de manière décisive dans les plans de l'architecte. Alors que les créations de Becker étaient encore basées sur le langage du baroque tardif et par exemple prévoyait un bâtiment avec une lanterne et un blason baroque dans le pignon, le duc préférait un classicisme sans fioritures dont le langage clair et sublime de la forme correspondait à son image de souverain éclairé. Ce mausolée est le premier édifice de ce style construit à Oldenbourg, et sert de modèle à d'autres édifices de la ville.
+La salle presque carrée du mausolée, qui repose sur un soubassement, est couverte d'un toit plat à pignon. À l'extérieur, il est orné d'une frise de triglyphes. L'intérieur est enjambé par une voûte décorée de champs à caissons fortement profilés et de stuc dans les écoinçons. L'incidence de la lumière d'en haut est rendue possible par un dôme pesant environ une tonne, qui est équipé d'un verre gravé très fin. Trois niches sont encastrées dans le mur Nord de l'intérieur, l'ensemble en grès du milieu est dédié à la mémoire de la duchesse Frédérique. En 1824  et en 1831, deux sculptures de marbre de Johann Heinrich Dannecker sont installées à l'intérieur. L'inscription gravée sur le monument en marbre du couple ducal dit à propos du bâtisseur, le duc Pierre Ier : « Être le père de la patrie était sa plus haute vocation. » Le passage vers la crypte au sous-sol était initialement situé directement sous le dôme de verre, mais il a été déplacé à son emplacement actuel en 1895.
+Le mausolée est inscrit à la liste des monuments historiques d'importance nationale.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mausol%C3%A9e_ducal_d%27Oldenbourg</t>
+          <t>Mausolée_ducal_d'Oldenbourg</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>On y trouve les sépultures des personnalités suivantes :
 Duchesse Frédérique (1765-1785) – Épouse de Pierre Ier 
